--- a/homework11/excel.xlsx
+++ b/homework11/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kawinthara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPSC321_631_hci อ.บุรินทร์\homework11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892E727-0F93-454F-BD5F-8557FBBF2950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503BA9B-85CF-41DB-9D77-841BF6CF0A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{A0ED5CA7-095E-49F4-9011-5623062627F2}"/>
   </bookViews>
@@ -20,6 +20,18 @@
     <sheet name="สรุป_ตอนที่2" sheetId="7" r:id="rId5"/>
     <sheet name="สรุป_ตอนที่3" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">สรุป_ตอนที่3!$A$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">สรุป_ตอนที่3!$A$3:$O$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">สรุป_ตอนที่3!$A$31:$I$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">สรุป_ตอนที่3!$A$32:$I$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">สรุป_ตอนที่3!$A$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">สรุป_ตอนที่3!$A$3:$O$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">สรุป_ตอนที่3!$A$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">สรุป_ตอนที่3!$A$3:$O$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">สรุป_ตอนที่3!$A$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">สรุป_ตอนที่3!$A$3:$O$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
   <si>
     <t>เพศ</t>
   </si>
@@ -490,6 +502,18 @@
   <si>
     <t>***หมายเหตุ ตอนที่1</t>
   </si>
+  <si>
+    <t>ด้านผลิตภัณฑ์</t>
+  </si>
+  <si>
+    <t>ด้านราคาและการจัดจำหน่าย</t>
+  </si>
+  <si>
+    <t>ด้านสถานที่</t>
+  </si>
+  <si>
+    <t>ด้านการบริการ</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,30 +655,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -666,6 +669,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -676,17 +718,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,14 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -847,6 +872,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -867,6 +897,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -887,6 +922,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -907,6 +947,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1062,6 +1107,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1082,6 +1132,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1102,6 +1157,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1122,6 +1182,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-819A-49D4-BF8C-44649D0BCBB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1491,6 +1556,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1537,6 +1607,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1583,6 +1658,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1707,6 +1787,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1819,6 +1904,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1928,6 +2018,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2037,6 +2132,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2057,6 +2157,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2077,6 +2182,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2097,6 +2207,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2117,6 +2232,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-C162-408B-951A-4DA95DD8B80A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2353,105 +2473,118 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$A$15</c:f>
+              <c:f>สรุป_ตอนที่1!$B$13:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ปี1</c:v>
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>นิเทศ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$B$13:$K$14</c:f>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>นิเทศ</c:v>
+                  <c:v>ปี1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>สาธา</c:v>
+                  <c:v>ปี2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>บริหาร</c:v>
+                  <c:v>ปี3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>การบัญชี</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>การบิน</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>วิทย์-คอม</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>รปศ.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>พยาบาล</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>เทคนิค</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ทันตะ</c:v>
+                  <c:v>ปี4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>สรุป_ตอนที่1!$B$15:$K$15</c:f>
+              <c:f>สรุป_ตอนที่1!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2459,27 +2592,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2496,98 +2611,111 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$A$16</c:f>
+              <c:f>สรุป_ตอนที่1!$C$13:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ปี2</c:v>
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>สาธา</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$B$13:$K$14</c:f>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>นิเทศ</c:v>
+                  <c:v>ปี1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>สาธา</c:v>
+                  <c:v>ปี2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>บริหาร</c:v>
+                  <c:v>ปี3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>การบัญชี</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>การบิน</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>วิทย์-คอม</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>รปศ.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>พยาบาล</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>เทคนิค</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ทันตะ</c:v>
+                  <c:v>ปี4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>สรุป_ตอนที่1!$B$16:$K$16</c:f>
+              <c:f>สรุป_ตอนที่1!$C$15:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2595,28 +2723,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2632,126 +2742,121 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$A$17</c:f>
+              <c:f>สรุป_ตอนที่1!$D$13:$D$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ปี3</c:v>
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>บริหาร</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$B$13:$K$14</c:f>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>นิเทศ</c:v>
+                  <c:v>ปี1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>สาธา</c:v>
+                  <c:v>ปี2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>บริหาร</c:v>
+                  <c:v>ปี3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>การบัญชี</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>การบิน</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>วิทย์-คอม</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>รปศ.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>พยาบาล</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>เทคนิค</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ทันตะ</c:v>
+                  <c:v>ปี4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>สรุป_ตอนที่1!$B$17:$K$17</c:f>
+              <c:f>สรุป_ตอนที่1!$D$15:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2768,123 +2873,195 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$A$18</c:f>
+              <c:f>สรุป_ตอนที่1!$E$13:$E$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ปี4</c:v>
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>การบัญชี</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>สรุป_ตอนที่1!$B$13:$K$14</c:f>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>นิเทศ</c:v>
+                  <c:v>ปี1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>สาธา</c:v>
+                  <c:v>ปี2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>บริหาร</c:v>
+                  <c:v>ปี3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>การบัญชี</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>การบิน</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>วิทย์-คอม</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>รปศ.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>พยาบาล</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>เทคนิค</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ทันตะ</c:v>
+                  <c:v>ปี4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>สรุป_ตอนที่1!$B$18:$K$18</c:f>
+              <c:f>สรุป_ตอนที่1!$E$15:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C562-4368-A208-0F991BACE162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$F$13:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>การบิน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ปี1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ปี2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปี3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ปี4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่1!$F$15:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2892,7 +3069,382 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C562-4368-A208-0F991BACE162}"/>
+              <c16:uniqueId val="{00000001-5217-4DE3-99FA-53204A712DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$G$13:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>วิทย์-คอม</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ปี1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ปี2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปี3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ปี4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่1!$G$15:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5217-4DE3-99FA-53204A712DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$H$13:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>รปศ.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ปี1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ปี2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปี3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ปี4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่1!$H$15:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5217-4DE3-99FA-53204A712DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$I$13:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>พยาบาล</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ปี1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ปี2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปี3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ปี4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่1!$I$15:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5217-4DE3-99FA-53204A712DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$J$13:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>เทคนิค</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ปี1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ปี2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปี3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ปี4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่1!$J$15:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5217-4DE3-99FA-53204A712DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$K$13:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สาขา</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ทันตะ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>สรุป_ตอนที่1!$A$15:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ปี1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ปี2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ปี3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ปี4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่1!$K$15:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5217-4DE3-99FA-53204A712DC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2904,8 +3456,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
+        <c:gapWidth val="199"/>
         <c:axId val="507777320"/>
         <c:axId val="507778304"/>
       </c:barChart>
@@ -2922,7 +3473,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2938,7 +3489,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2954,6 +3505,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="507778304"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2980,6 +3532,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3012,6 +3578,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="507777320"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3023,7 +3590,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3326,6 +3893,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-988F-4160-A22A-E5FB3FD6607D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4052,6 +4624,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4369,6 +4948,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4389,6 +4973,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4409,6 +4998,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4429,6 +5023,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4449,6 +5048,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4469,6 +5073,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4491,6 +5100,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4513,6 +5127,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4535,6 +5154,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -4557,6 +5181,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4579,6 +5208,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4601,6 +5235,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4624,6 +5263,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -4647,6 +5291,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -4670,6 +5319,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-0F4A-428B-93A8-6531B7758CD0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4970,6 +5624,1140 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1800" b="1">
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:rPr>
+              <a:t>คำถามตอนที่ 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40297510662729658"/>
+          <c:y val="5.6042021219480265E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>สรุป_ตอนที่3!$A$1:$O$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>สรุป_ตอนที่3!$A$2:$O$2</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>สรุป_ตอนที่3!$A$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ข้อที่1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ข้อที่2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ข้อที่3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ข้อที่4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ข้อที่5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ข้อที่6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ข้อที่7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ข้อที่8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ข้อที่9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ข้อที่10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ข้อที่11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ข้อที่12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ข้อที่13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ข้อที่14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ข้อที่15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>สรุป_ตอนที่3!$A$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43C7-44B2-80BE-88F1E59527F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:rPr>
+              <a:t>คำถามตอนที่ 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{90B33DB3-B423-4FF3-B2D3-6303F7A9774E}">
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5207,6 +6995,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
   <cs:axisTitle>
@@ -6410,7 +8278,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6421,7 +8289,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6434,7 +8302,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -6444,14 +8312,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6487,22 +8355,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6511,35 +8374,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6548,34 +8421,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6597,15 +8465,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6620,15 +8486,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6639,17 +8505,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6658,14 +8524,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6677,7 +8543,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -6685,7 +8551,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6704,7 +8570,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6723,17 +8589,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6742,17 +8608,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6768,20 +8633,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6795,7 +8660,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -6812,10 +8677,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -6830,13 +8695,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6845,13 +8710,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6881,8 +8747,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6905,7 +8771,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8621,6 +10487,1080 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="335">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -8859,6 +11799,120 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="แผนภูมิ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBC381D-4F5C-4B2A-89D2-4CF93195F0D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="แผนภูมิ 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F1CEA0-7249-4A02-BFDE-8E2132D15324}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6086474" y="9158287"/>
+              <a:ext cx="4886325" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>แผนภูมินี้ยังไม่พร้อมใช้งานใน Excel เวอร์ชันของคุณ
+การแก้ไขรูปร่างนี้หรือการบันทึกเวิร์กบุ๊กนี้เป็นรูปแบบไฟล์อื่นจะทำลายแผนภูมิอย่างถาวร</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9173,32 +12227,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
@@ -9227,14 +12281,14 @@
       <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
@@ -9249,12 +12303,12 @@
       <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
@@ -9283,14 +12337,14 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
@@ -9305,12 +12359,12 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
@@ -9325,12 +12379,12 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
@@ -9345,12 +12399,12 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
@@ -9379,14 +12433,14 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
@@ -9401,12 +12455,12 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
@@ -9421,12 +12475,12 @@
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
@@ -9441,12 +12495,12 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
@@ -9461,12 +12515,12 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
@@ -9481,12 +12535,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
@@ -9501,12 +12555,12 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
@@ -9521,12 +12575,12 @@
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -9541,12 +12595,12 @@
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
@@ -9561,12 +12615,12 @@
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -10004,6 +13058,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="F12:F21"/>
@@ -10015,16 +13079,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10035,8 +13089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC94289-2FD2-4FFB-A817-A8F28C2415EC}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10073,7 +13127,7 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="24">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10114,83 +13168,83 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="24" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10198,7 +13252,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -10281,7 +13335,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -10364,7 +13418,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -10447,7 +13501,7 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -10477,7 +13531,7 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
       <c r="M7" s="1">
@@ -10530,7 +13584,7 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="10">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -10613,7 +13667,7 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="10">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -10696,7 +13750,7 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -10779,7 +13833,7 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -10862,7 +13916,7 @@
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="1">
@@ -10945,7 +13999,7 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="10">
         <v>0</v>
       </c>
       <c r="C13" s="1">
@@ -11028,7 +14082,7 @@
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="10">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -11111,7 +14165,7 @@
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
       <c r="C15" s="1">
@@ -11194,7 +14248,7 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" s="1">
@@ -11277,7 +14331,7 @@
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" s="1">
@@ -11360,7 +14414,7 @@
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -11443,7 +14497,7 @@
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="10">
         <v>0</v>
       </c>
       <c r="C19" s="1">
@@ -11526,7 +14580,7 @@
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="10">
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -11609,7 +14663,7 @@
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
       <c r="C21" s="1">
@@ -11692,7 +14746,7 @@
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" s="1">
@@ -11775,7 +14829,7 @@
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="10">
         <v>0</v>
       </c>
       <c r="C23" s="1">
@@ -11858,7 +14912,7 @@
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
       <c r="C24" s="1">
@@ -11941,7 +14995,7 @@
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="10">
         <v>0</v>
       </c>
       <c r="C25" s="1">
@@ -12024,7 +15078,7 @@
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -12107,7 +15161,7 @@
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="10">
         <v>0</v>
       </c>
       <c r="C27" s="1">
@@ -12190,7 +15244,7 @@
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="1">
@@ -12273,7 +15327,7 @@
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="10">
         <v>0</v>
       </c>
       <c r="C29" s="1">
@@ -12356,7 +15410,7 @@
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="1">
@@ -12439,7 +15493,7 @@
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="1">
@@ -12522,7 +15576,7 @@
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="10">
         <v>1</v>
       </c>
       <c r="C32" s="1">
@@ -12605,7 +15659,7 @@
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="1">
@@ -12688,7 +15742,7 @@
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="10">
         <v>0</v>
       </c>
       <c r="C34" s="1">
@@ -12771,7 +15825,7 @@
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="10">
         <v>0</v>
       </c>
       <c r="C35" s="1">
@@ -12854,7 +15908,7 @@
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="10">
         <v>1</v>
       </c>
       <c r="C36" s="1">
@@ -12937,7 +15991,7 @@
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="10">
         <v>1</v>
       </c>
       <c r="C37" s="1">
@@ -13020,7 +16074,7 @@
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="10">
         <v>1</v>
       </c>
       <c r="C38" s="1">
@@ -13103,7 +16157,7 @@
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="10">
         <v>0</v>
       </c>
       <c r="C39" s="1">
@@ -13186,7 +16240,7 @@
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="10">
         <v>0</v>
       </c>
       <c r="C40" s="1">
@@ -13269,7 +16323,7 @@
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="10">
         <v>1</v>
       </c>
       <c r="C41" s="1">
@@ -13352,7 +16406,7 @@
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="10">
         <v>1</v>
       </c>
       <c r="C42" s="1">
@@ -13435,7 +16489,7 @@
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="10">
         <v>1</v>
       </c>
       <c r="C43" s="1">
@@ -13518,7 +16572,7 @@
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="10">
         <v>1</v>
       </c>
       <c r="C44" s="1">
@@ -13601,7 +16655,7 @@
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="10">
         <v>0</v>
       </c>
       <c r="C45" s="1">
@@ -13684,7 +16738,7 @@
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="10">
         <v>1</v>
       </c>
       <c r="C46" s="1">
@@ -13767,7 +16821,7 @@
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="10">
         <v>1</v>
       </c>
       <c r="C47" s="1">
@@ -13850,7 +16904,7 @@
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="10">
         <v>1</v>
       </c>
       <c r="C48" s="1">
@@ -13933,7 +16987,7 @@
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="10">
         <v>1</v>
       </c>
       <c r="C49" s="1">
@@ -14016,7 +17070,7 @@
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="10">
         <v>1</v>
       </c>
       <c r="C50" s="1">
@@ -14099,7 +17153,7 @@
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="10">
         <v>1</v>
       </c>
       <c r="C51" s="1">
@@ -14182,7 +17236,7 @@
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="11">
         <v>0</v>
       </c>
       <c r="C52" s="1">
@@ -14212,7 +17266,7 @@
       <c r="K52" s="1">
         <v>1</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="8">
         <v>0</v>
       </c>
       <c r="M52" s="1">
@@ -14265,7 +17319,7 @@
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="10">
         <v>0</v>
       </c>
       <c r="C53" s="1">
@@ -14345,110 +17399,110 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="24">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="33" t="str">
+      <c r="B54" s="18" t="str">
         <f>SUM(B4:B53)/50*100&amp;"%"</f>
         <v>58%</v>
       </c>
-      <c r="C54" s="33" t="str">
+      <c r="C54" s="18" t="str">
         <f t="shared" ref="C54:AA54" si="0">SUM(C4:C53)/50*100&amp;"%"</f>
         <v>8%</v>
       </c>
-      <c r="D54" s="33" t="str">
+      <c r="D54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="E54" s="33" t="str">
+      <c r="E54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="F54" s="33" t="str">
+      <c r="F54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="G54" s="33" t="str">
+      <c r="G54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>10%</v>
       </c>
-      <c r="H54" s="33" t="str">
+      <c r="H54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>24%</v>
       </c>
-      <c r="I54" s="33" t="str">
+      <c r="I54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="J54" s="33" t="str">
+      <c r="J54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>26%</v>
       </c>
-      <c r="K54" s="33" t="str">
+      <c r="K54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>40%</v>
       </c>
-      <c r="L54" s="33" t="str">
+      <c r="L54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>10%</v>
       </c>
-      <c r="M54" s="33" t="str">
+      <c r="M54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>16%</v>
       </c>
-      <c r="N54" s="33" t="str">
+      <c r="N54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="O54" s="33" t="str">
+      <c r="O54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>8%</v>
       </c>
-      <c r="P54" s="33" t="str">
+      <c r="P54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>42%</v>
       </c>
-      <c r="Q54" s="33" t="str">
+      <c r="Q54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>42%</v>
       </c>
-      <c r="R54" s="33" t="str">
+      <c r="R54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>10%</v>
       </c>
-      <c r="S54" s="33" t="str">
+      <c r="S54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>2%</v>
       </c>
-      <c r="T54" s="33" t="str">
+      <c r="T54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>36%</v>
       </c>
-      <c r="U54" s="33" t="str">
+      <c r="U54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>50%</v>
       </c>
-      <c r="V54" s="33" t="str">
+      <c r="V54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>6%</v>
       </c>
-      <c r="W54" s="33" t="str">
+      <c r="W54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>4%</v>
       </c>
-      <c r="X54" s="33" t="str">
+      <c r="X54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>28%</v>
       </c>
-      <c r="Y54" s="33" t="str">
+      <c r="Y54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>10%</v>
       </c>
-      <c r="Z54" s="33" t="str">
+      <c r="Z54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>8%</v>
       </c>
-      <c r="AA54" s="33" t="str">
+      <c r="AA54" s="18" t="str">
         <f t="shared" si="0"/>
         <v>50%</v>
       </c>
@@ -14483,18 +17537,18 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" spans="1:27" ht="24">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -14516,18 +17570,18 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="1:27" ht="24">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -14549,18 +17603,18 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" spans="1:27" ht="24">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -14582,11 +17636,11 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="1:27" ht="24">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -14613,11 +17667,11 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:27" ht="24">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -14644,11 +17698,11 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" ht="24">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -14676,16 +17730,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="E58:H58"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14701,82 +17755,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
@@ -14827,10 +17881,10 @@
       <c r="P3" s="5">
         <v>4</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="14"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
@@ -14881,10 +17935,10 @@
       <c r="P4" s="5">
         <v>3</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="14"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
@@ -14935,10 +17989,10 @@
       <c r="P5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="14"/>
+      <c r="S5" s="30"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
@@ -14989,10 +18043,10 @@
       <c r="P6" s="5">
         <v>3</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="S6" s="14"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
@@ -15043,10 +18097,10 @@
       <c r="P7" s="5">
         <v>3</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="14"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
@@ -17299,79 +20353,79 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <f>SUM(B3:B52)/50</f>
         <v>3.72</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <f t="shared" ref="C53:P53" si="0">SUM(C3:C52)/50</f>
         <v>4.22</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>4.04</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f t="shared" si="0"/>
         <v>3.94</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <f t="shared" si="0"/>
         <v>4.04</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <f t="shared" si="0"/>
         <v>4.0199999999999996</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <f t="shared" si="0"/>
         <v>3.56</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <f t="shared" si="0"/>
         <v>3.88</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <f t="shared" si="0"/>
         <v>3.76</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <f t="shared" si="0"/>
         <v>3.66</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="6">
         <f t="shared" si="0"/>
         <v>3.56</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="6">
         <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="6">
         <f t="shared" si="0"/>
         <v>3.88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17381,8 +20435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F712E2-D105-495B-B2BE-AE05D257D50B}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -17391,20 +20445,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -17412,10 +20466,10 @@
       <c r="A3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="8">
         <v>8</v>
       </c>
     </row>
@@ -17423,10 +20477,10 @@
       <c r="A4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="15">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -17434,10 +20488,10 @@
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="15">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
         <v>22</v>
       </c>
     </row>
@@ -17445,10 +20499,10 @@
       <c r="A6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
         <v>10</v>
       </c>
     </row>
@@ -17466,52 +20520,52 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>145</v>
       </c>
     </row>
@@ -17699,16 +20753,16 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6"/>
+      <c r="A23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -17769,7 +20823,7 @@
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -17778,36 +20832,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="24">
+      <c r="A3" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="12">
         <v>0.4</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="12">
         <v>0.42</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="12">
         <v>0.5</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -17819,10 +20873,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AA71BE-1987-4C01-BC56-389A5DC93CEA}">
-  <dimension ref="A2:O3"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -17830,50 +20884,75 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17924,8 +21003,37 @@
         <v>3.88</v>
       </c>
     </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>